--- a/Paper Figures/Conformance Testing/Shors Algorithm results.xlsx
+++ b/Paper Figures/Conformance Testing/Shors Algorithm results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Work\Quantum-Algorithm-Implementations\Paper Figures\Conformance Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC866C8-CB93-48E7-919E-D617733FBE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">Shor's Algorithm </t>
+  </si>
+  <si>
+    <t>Qiskit qpe_amod15(2)</t>
+  </si>
+  <si>
+    <t>Qiskit qpe_amod15(11)</t>
+  </si>
+  <si>
+    <t>Qiskit qpe_amod15(13)</t>
+  </si>
+  <si>
+    <t>Qiskit qpe_amod15(7)</t>
+  </si>
+  <si>
+    <t>Cirq qpe_amod15(2)</t>
+  </si>
+  <si>
+    <t>Cirq qpe_amod15(7)</t>
+  </si>
+  <si>
+    <t>Cirq qpe_amod15(11)</t>
+  </si>
+  <si>
+    <t>Cirq qpe_amod15(13)</t>
+  </si>
+  <si>
+    <t>Q# qpe_amod15(2)</t>
+  </si>
+  <si>
+    <t>Q# qpe_amod15(7)</t>
+  </si>
+  <si>
+    <t>Q# qpe_amod15(11)</t>
+  </si>
+  <si>
+    <t>Q# qpe_amod15(13)</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Q# shors algorithm(7)</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Q# shors algorithm(11)</t>
+  </si>
+  <si>
+    <t>Cirq shors algorithm(7)</t>
+  </si>
+  <si>
+    <t>Cirq shors algorithm(11)</t>
+  </si>
+  <si>
+    <t>Qiskit shors algorithm(7)</t>
+  </si>
+  <si>
+    <t>Qiskit shors algorithm(11)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +122,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +429,470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C2" s="2">
+        <v>245</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G2" s="2">
+        <v>259</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>264</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>234</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>243</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>249</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>248</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>258</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="2">
+        <v>254</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="2">
+        <v>251</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>254</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>258</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>230</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>269</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>262</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>222</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>486</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>483</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>514</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>517</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="2">
+        <v>246</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="2">
+        <v>247</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>226</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>272</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>237</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="2">
+        <v>230</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>291</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>251</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>651</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="2">
+        <v>685</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>349</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>315</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>